--- a/target/test-classes/testdata/data.xlsx
+++ b/target/test-classes/testdata/data.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{837EB884-B36C-40BA-B455-4EFF51563B3C}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{580078C0-DF3D-40A6-9220-16C28EB7FC00}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19320" windowHeight="5745" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
   <si>
     <t>ScenarioName</t>
   </si>
@@ -53,9 +53,6 @@
     <t>departDate</t>
   </si>
   <si>
-    <t>r</t>
-  </si>
-  <si>
     <t>returnDate</t>
   </si>
   <si>
@@ -72,6 +69,24 @@
   </si>
   <si>
     <t>Fri, 21 Dec, 2018</t>
+  </si>
+  <si>
+    <t>tripType</t>
+  </si>
+  <si>
+    <t>one way</t>
+  </si>
+  <si>
+    <t>round trip</t>
+  </si>
+  <si>
+    <t>Validate city airport details through api</t>
+  </si>
+  <si>
+    <t>cityName</t>
+  </si>
+  <si>
+    <t>mumbai</t>
   </si>
 </sst>
 </file>
@@ -395,98 +410,116 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" customWidth="1"/>
-    <col min="4" max="5" width="18.42578125" customWidth="1"/>
-    <col min="6" max="6" width="12.140625" customWidth="1"/>
-    <col min="7" max="7" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.42578125" customWidth="1"/>
+    <col min="1" max="1" width="36" customWidth="1"/>
+    <col min="2" max="2" width="27.85546875" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" customWidth="1"/>
+    <col min="5" max="6" width="18.42578125" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" customWidth="1"/>
+    <col min="8" max="8" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>9</v>
       </c>
-      <c r="E1" t="s">
-        <v>11</v>
-      </c>
       <c r="F1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="I1" t="s">
-        <v>10</v>
+      <c r="J1" t="s">
+        <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
       <c r="B2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>5</v>
       </c>
-      <c r="D2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2" s="1">
-        <v>2</v>
+      <c r="E2" t="s">
+        <v>14</v>
       </c>
       <c r="G2" s="1">
         <v>2</v>
       </c>
       <c r="H2" s="1">
+        <v>2</v>
+      </c>
+      <c r="I2" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" t="s">
         <v>12</v>
       </c>
-      <c r="B3" t="s">
+      <c r="D3" t="s">
         <v>13</v>
-      </c>
-      <c r="C3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" t="s">
-        <v>16</v>
       </c>
       <c r="E3" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="2">
-        <v>1</v>
+      <c r="F3" t="s">
+        <v>14</v>
       </c>
       <c r="G3" s="2">
         <v>1</v>
       </c>
       <c r="H3" s="2">
         <v>1</v>
+      </c>
+      <c r="I3" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>19</v>
+      </c>
+      <c r="J4" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/target/test-classes/testdata/data.xlsx
+++ b/target/test-classes/testdata/data.xlsx
@@ -1,17 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{580078C0-DF3D-40A6-9220-16C28EB7FC00}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{79DB0BA4-3525-40B8-87CD-2A56AF01F05B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19320" windowHeight="5745" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="UI_Test" sheetId="1" r:id="rId1"/>
+    <sheet name="round_trip" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
+  <oleSize ref="A1:N17"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="23">
   <si>
     <t>ScenarioName</t>
   </si>
@@ -65,12 +66,6 @@
     <t>Chennai</t>
   </si>
   <si>
-    <t>Mon, 31 Dec, 2018</t>
-  </si>
-  <si>
-    <t>Fri, 21 Dec, 2018</t>
-  </si>
-  <si>
     <t>tripType</t>
   </si>
   <si>
@@ -87,6 +82,15 @@
   </si>
   <si>
     <t>mumbai</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>Sat, 2 Feb, 2019</t>
+  </si>
+  <si>
+    <t>Sun, 10 Feb, 2019</t>
   </si>
 </sst>
 </file>
@@ -122,7 +126,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -130,6 +134,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -412,8 +417,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -432,7 +437,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -454,9 +459,6 @@
       </c>
       <c r="I1" t="s">
         <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -464,7 +466,7 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
@@ -472,8 +474,11 @@
       <c r="D2" t="s">
         <v>5</v>
       </c>
-      <c r="E2" t="s">
-        <v>14</v>
+      <c r="E2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>20</v>
       </c>
       <c r="G2" s="1">
         <v>2</v>
@@ -490,7 +495,7 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C3" t="s">
         <v>12</v>
@@ -498,11 +503,11 @@
       <c r="D3" t="s">
         <v>13</v>
       </c>
-      <c r="E3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" t="s">
-        <v>14</v>
+      <c r="E3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="G3" s="2">
         <v>1</v>
@@ -514,14 +519,45 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDD2AFE4-0617-447B-A158-FC863525FC13}">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:H1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="36.5703125" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" customWidth="1"/>
+    <col min="4" max="8" width="9.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" t="s">
         <v>19</v>
       </c>
-      <c r="J4" t="s">
-        <v>21</v>
-      </c>
     </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
